--- a/Code/Results/Cases/Case_5_153/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_153/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.89731810386829</v>
+        <v>18.5679874210492</v>
       </c>
       <c r="C2">
-        <v>7.18401511899726</v>
+        <v>5.562401437147237</v>
       </c>
       <c r="D2">
-        <v>6.157666630475518</v>
+        <v>8.904495809317439</v>
       </c>
       <c r="E2">
-        <v>6.38837835614127</v>
+        <v>10.67598311675268</v>
       </c>
       <c r="F2">
-        <v>36.06672028914656</v>
+        <v>43.52110274804083</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.19230697756544</v>
+        <v>14.91549994552527</v>
       </c>
       <c r="L2">
-        <v>6.22715512160273</v>
+        <v>10.11849393003555</v>
       </c>
       <c r="M2">
-        <v>11.56630980331354</v>
+        <v>16.99277315757985</v>
       </c>
       <c r="N2">
-        <v>17.55616010564712</v>
+        <v>24.89438636514322</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.00274652528092</v>
+        <v>18.42006533862371</v>
       </c>
       <c r="C3">
-        <v>6.794691123306644</v>
+        <v>5.399777418781163</v>
       </c>
       <c r="D3">
-        <v>6.22125209171723</v>
+        <v>8.913683858099608</v>
       </c>
       <c r="E3">
-        <v>6.395490615835533</v>
+        <v>10.69221696583118</v>
       </c>
       <c r="F3">
-        <v>35.09712913093627</v>
+        <v>43.39044630862723</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,16 +483,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.50424566830944</v>
+        <v>14.81024531050834</v>
       </c>
       <c r="L3">
-        <v>6.157665066591895</v>
+        <v>10.12974653347598</v>
       </c>
       <c r="M3">
-        <v>11.24801748439513</v>
+        <v>16.98428539354114</v>
       </c>
       <c r="N3">
-        <v>17.6346226755404</v>
+        <v>24.92284110228973</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.44017365082252</v>
+        <v>18.33363894517318</v>
       </c>
       <c r="C4">
-        <v>6.545719577681481</v>
+        <v>5.296116411645936</v>
       </c>
       <c r="D4">
-        <v>6.260375151180398</v>
+        <v>8.919464365204497</v>
       </c>
       <c r="E4">
-        <v>6.401813975411062</v>
+        <v>10.70309845947502</v>
       </c>
       <c r="F4">
-        <v>34.51403071606336</v>
+        <v>43.31839245167132</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,16 +524,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.07214695940823</v>
+        <v>14.74919779977436</v>
       </c>
       <c r="L4">
-        <v>6.117812347044809</v>
+        <v>10.13806042733651</v>
       </c>
       <c r="M4">
-        <v>11.05559826058794</v>
+        <v>16.98224569073491</v>
       </c>
       <c r="N4">
-        <v>17.68792619544309</v>
+        <v>24.94212439181819</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.20783911530783</v>
+        <v>18.29956018811473</v>
       </c>
       <c r="C5">
-        <v>6.441780403274705</v>
+        <v>5.25294532627352</v>
       </c>
       <c r="D5">
-        <v>6.27635588124061</v>
+        <v>8.921855124916892</v>
       </c>
       <c r="E5">
-        <v>6.404873068539531</v>
+        <v>10.70776292067703</v>
       </c>
       <c r="F5">
-        <v>34.27964399392193</v>
+        <v>43.29109947485035</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,16 +565,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.89384864515144</v>
+        <v>14.72524368886243</v>
       </c>
       <c r="L5">
-        <v>6.102274231715507</v>
+        <v>10.14180184388389</v>
       </c>
       <c r="M5">
-        <v>10.9780229490147</v>
+        <v>16.98221387853335</v>
       </c>
       <c r="N5">
-        <v>17.71089494600558</v>
+        <v>24.95043806957895</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.16908278138354</v>
+        <v>18.2939713023221</v>
       </c>
       <c r="C6">
-        <v>6.424372174172428</v>
+        <v>5.245721643515959</v>
       </c>
       <c r="D6">
-        <v>6.279012233959777</v>
+        <v>8.922254237969398</v>
       </c>
       <c r="E6">
-        <v>6.40540988091729</v>
+        <v>10.70855136309504</v>
       </c>
       <c r="F6">
-        <v>34.2409239724779</v>
+        <v>43.28669289571229</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.86411541619907</v>
+        <v>14.72132253397177</v>
       </c>
       <c r="L6">
-        <v>6.099736372911941</v>
+        <v>10.14244445485612</v>
       </c>
       <c r="M6">
-        <v>10.96519456027241</v>
+        <v>16.9822569214856</v>
       </c>
       <c r="N6">
-        <v>17.71478304077694</v>
+        <v>24.95184606373742</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.4370523953492</v>
+        <v>18.33317468432132</v>
       </c>
       <c r="C7">
-        <v>6.544327836455738</v>
+        <v>5.295537909298345</v>
       </c>
       <c r="D7">
-        <v>6.26059049795521</v>
+        <v>8.919496465231243</v>
       </c>
       <c r="E7">
-        <v>6.401853291209194</v>
+        <v>10.70316043360824</v>
       </c>
       <c r="F7">
-        <v>34.51085640669264</v>
+        <v>43.31801597110368</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.06975103036382</v>
+        <v>14.74887097868076</v>
       </c>
       <c r="L7">
-        <v>6.117599959307359</v>
+        <v>10.13810945410836</v>
       </c>
       <c r="M7">
-        <v>11.05454855642117</v>
+        <v>16.98224202297641</v>
       </c>
       <c r="N7">
-        <v>17.68823096382732</v>
+        <v>24.94223466848532</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.59177229290741</v>
+        <v>18.51609248382123</v>
       </c>
       <c r="C8">
-        <v>7.05184121159252</v>
+        <v>5.507136106533902</v>
       </c>
       <c r="D8">
-        <v>6.179584832265219</v>
+        <v>8.907635120370385</v>
       </c>
       <c r="E8">
-        <v>6.390418660176218</v>
+        <v>10.68139110247534</v>
       </c>
       <c r="F8">
-        <v>35.72995613383612</v>
+        <v>43.47436652508966</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,16 +688,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.95717236972714</v>
+        <v>14.87847970087586</v>
       </c>
       <c r="L8">
-        <v>6.202607680004443</v>
+        <v>10.12208240659655</v>
       </c>
       <c r="M8">
-        <v>11.4559835498383</v>
+        <v>16.98918946595218</v>
       </c>
       <c r="N8">
-        <v>17.582123498767</v>
+        <v>24.9038214539037</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.74174476252806</v>
+        <v>18.9080673296091</v>
       </c>
       <c r="C9">
-        <v>7.968294999840417</v>
+        <v>5.890700165091569</v>
       </c>
       <c r="D9">
-        <v>6.02052663942003</v>
+        <v>8.885468287321101</v>
       </c>
       <c r="E9">
-        <v>6.383976920781456</v>
+        <v>10.64593616881396</v>
       </c>
       <c r="F9">
-        <v>38.21153288594757</v>
+        <v>43.8450357607373</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,16 +729,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.61403988339906</v>
+        <v>15.1599449718986</v>
       </c>
       <c r="L9">
-        <v>6.391869681541495</v>
+        <v>10.10178950066164</v>
       </c>
       <c r="M9">
-        <v>12.26388386780713</v>
+        <v>17.02788550263548</v>
       </c>
       <c r="N9">
-        <v>17.41679849034482</v>
+        <v>24.84287339385074</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.2431887657755</v>
+        <v>19.21403278915717</v>
       </c>
       <c r="C10">
-        <v>8.594368903073294</v>
+        <v>6.152014953496629</v>
       </c>
       <c r="D10">
-        <v>5.902238171273186</v>
+        <v>8.869834362736025</v>
       </c>
       <c r="E10">
-        <v>6.389659959770261</v>
+        <v>10.6242759495916</v>
       </c>
       <c r="F10">
-        <v>40.08343635114912</v>
+        <v>44.15528379456642</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.99999682196172</v>
+        <v>15.381814092631</v>
       </c>
       <c r="L10">
-        <v>6.545000892770982</v>
+        <v>10.09365403966956</v>
       </c>
       <c r="M10">
-        <v>12.86629004350495</v>
+        <v>17.0714500490097</v>
       </c>
       <c r="N10">
-        <v>17.32455496871408</v>
+        <v>24.80686640754913</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.90840114580428</v>
+        <v>19.35660910707412</v>
       </c>
       <c r="C11">
-        <v>8.869306134256934</v>
+        <v>6.26620596072532</v>
       </c>
       <c r="D11">
-        <v>5.847791011140697</v>
+        <v>8.862860524544434</v>
       </c>
       <c r="E11">
-        <v>6.394666392949904</v>
+        <v>10.61537040809885</v>
       </c>
       <c r="F11">
-        <v>40.94470397870377</v>
+        <v>44.30437325575956</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.61581118815873</v>
+        <v>15.48566327898215</v>
       </c>
       <c r="L11">
-        <v>6.617800174188226</v>
+        <v>10.09141953791619</v>
       </c>
       <c r="M11">
-        <v>13.14165400632442</v>
+        <v>17.0945142897878</v>
       </c>
       <c r="N11">
-        <v>17.28972512892052</v>
+        <v>24.79239165674452</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.15771929392856</v>
+        <v>19.411041585999</v>
       </c>
       <c r="C12">
-        <v>8.972042474562182</v>
+        <v>6.308756699413584</v>
       </c>
       <c r="D12">
-        <v>5.82705148910831</v>
+        <v>8.860239344278318</v>
       </c>
       <c r="E12">
-        <v>6.396924643320127</v>
+        <v>10.61213402366852</v>
       </c>
       <c r="F12">
-        <v>41.2722121842897</v>
+        <v>44.36194650220674</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.84515269721795</v>
+        <v>15.525376659747</v>
       </c>
       <c r="L12">
-        <v>6.645826182720432</v>
+        <v>10.09078376085402</v>
       </c>
       <c r="M12">
-        <v>13.24608215222541</v>
+        <v>17.10371074812145</v>
       </c>
       <c r="N12">
-        <v>17.27763564892295</v>
+        <v>24.78718446527014</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.10413904481383</v>
+        <v>19.39929965718643</v>
       </c>
       <c r="C13">
-        <v>8.949976799774886</v>
+        <v>6.299623623679058</v>
       </c>
       <c r="D13">
-        <v>5.831524033764572</v>
+        <v>8.860802991098318</v>
       </c>
       <c r="E13">
-        <v>6.396421931277446</v>
+        <v>10.61282499598253</v>
       </c>
       <c r="F13">
-        <v>41.20161683785735</v>
+        <v>44.34949788648812</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,16 +893,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.79592923148331</v>
+        <v>15.51680693345438</v>
       </c>
       <c r="L13">
-        <v>6.63976975767456</v>
+        <v>10.0909113384434</v>
       </c>
       <c r="M13">
-        <v>13.22358529069543</v>
+        <v>17.10170962835011</v>
       </c>
       <c r="N13">
-        <v>17.28018915615681</v>
+        <v>24.78829373498687</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.92896447670441</v>
+        <v>19.3610787070438</v>
       </c>
       <c r="C14">
-        <v>8.877785621727059</v>
+        <v>6.269720576118419</v>
       </c>
       <c r="D14">
-        <v>5.846087377336262</v>
+        <v>8.862644485577119</v>
       </c>
       <c r="E14">
-        <v>6.39484483157786</v>
+        <v>10.61510142611235</v>
       </c>
       <c r="F14">
-        <v>40.97162097305194</v>
+        <v>44.30908763436934</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.63475574866629</v>
+        <v>15.48892293275062</v>
       </c>
       <c r="L14">
-        <v>6.620096655259608</v>
+        <v>10.09136301880363</v>
       </c>
       <c r="M14">
-        <v>13.15024245551816</v>
+        <v>17.0952616443814</v>
       </c>
       <c r="N14">
-        <v>17.28870802571163</v>
+        <v>24.79195776414601</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.8213285047904</v>
+        <v>19.33772345572406</v>
       </c>
       <c r="C15">
-        <v>8.833388619686493</v>
+        <v>6.251313631087253</v>
       </c>
       <c r="D15">
-        <v>5.854991071917572</v>
+        <v>8.863775008619998</v>
       </c>
       <c r="E15">
-        <v>6.393926452019912</v>
+        <v>10.61651349992694</v>
       </c>
       <c r="F15">
-        <v>40.83091928582842</v>
+        <v>44.28447970929592</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.53553426716849</v>
+        <v>15.47189274115141</v>
       </c>
       <c r="L15">
-        <v>6.60810626048675</v>
+        <v>10.09166706841934</v>
       </c>
       <c r="M15">
-        <v>13.10533700572037</v>
+        <v>17.09137216781336</v>
       </c>
       <c r="N15">
-        <v>17.29407164128174</v>
+        <v>24.79423778560099</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.19935449708824</v>
+        <v>19.20477943593281</v>
       </c>
       <c r="C16">
-        <v>8.576205960890496</v>
+        <v>6.144456529471705</v>
       </c>
       <c r="D16">
-        <v>5.905781111222446</v>
+        <v>8.870292881589773</v>
       </c>
       <c r="E16">
-        <v>6.38938269315395</v>
+        <v>10.62487699069295</v>
       </c>
       <c r="F16">
-        <v>40.02734243076151</v>
+        <v>44.14569821113651</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.95920564370764</v>
+        <v>15.37508334511008</v>
       </c>
       <c r="L16">
-        <v>6.540307027484758</v>
+        <v>10.09382953692748</v>
       </c>
       <c r="M16">
-        <v>12.8483175992039</v>
+        <v>17.07000771589228</v>
       </c>
       <c r="N16">
-        <v>17.32698087354958</v>
+        <v>24.80785071271173</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.81320552291543</v>
+        <v>19.12405881652843</v>
       </c>
       <c r="C17">
-        <v>8.415932625185723</v>
+        <v>6.077690702880411</v>
       </c>
       <c r="D17">
-        <v>5.936755626082807</v>
+        <v>8.87432661757156</v>
       </c>
       <c r="E17">
-        <v>6.387225189211517</v>
+        <v>10.63025023355347</v>
       </c>
       <c r="F17">
-        <v>39.53682919845733</v>
+        <v>44.06257881185376</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.59864719776038</v>
+        <v>15.31641926179657</v>
       </c>
       <c r="L17">
-        <v>6.499522983446927</v>
+        <v>10.09553138990165</v>
       </c>
       <c r="M17">
-        <v>12.69095391593897</v>
+        <v>17.05772989457807</v>
       </c>
       <c r="N17">
-        <v>17.34904683489181</v>
+        <v>24.81668982590669</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.58942620742626</v>
+        <v>19.07795242391687</v>
       </c>
       <c r="C18">
-        <v>8.322815766008471</v>
+        <v>6.038848950275991</v>
       </c>
       <c r="D18">
-        <v>5.954513344757303</v>
+        <v>8.876659727571209</v>
       </c>
       <c r="E18">
-        <v>6.386211231778195</v>
+        <v>10.63343001284739</v>
       </c>
       <c r="F18">
-        <v>39.25561447827252</v>
+        <v>44.01552137454561</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.38865227618404</v>
+        <v>15.28295401885317</v>
       </c>
       <c r="L18">
-        <v>6.47636004977932</v>
+        <v>10.09664830434403</v>
       </c>
       <c r="M18">
-        <v>12.60056877876358</v>
+        <v>17.05097387928081</v>
       </c>
       <c r="N18">
-        <v>17.36240503894878</v>
+        <v>24.82195315023645</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.51337173626419</v>
+        <v>19.06239827272146</v>
       </c>
       <c r="C19">
-        <v>8.291126816045342</v>
+        <v>6.025622831770979</v>
       </c>
       <c r="D19">
-        <v>5.960516703463121</v>
+        <v>8.877451919377819</v>
       </c>
       <c r="E19">
-        <v>6.385906489963679</v>
+        <v>10.63452196754765</v>
       </c>
       <c r="F19">
-        <v>39.16055893570111</v>
+        <v>43.99971827507944</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.31709954266527</v>
+        <v>15.27167176213633</v>
       </c>
       <c r="L19">
-        <v>6.468567947953077</v>
+        <v>10.09705019679844</v>
       </c>
       <c r="M19">
-        <v>12.56998894987882</v>
+        <v>17.04873906510517</v>
       </c>
       <c r="N19">
-        <v>17.36704021931313</v>
+        <v>24.82376601184039</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.85448555369645</v>
+        <v>19.13261867052912</v>
       </c>
       <c r="C20">
-        <v>8.433090165123478</v>
+        <v>6.084843692202145</v>
       </c>
       <c r="D20">
-        <v>5.933464546219512</v>
+        <v>8.873895874295615</v>
       </c>
       <c r="E20">
-        <v>6.387431267492875</v>
+        <v>10.62966900996438</v>
       </c>
       <c r="F20">
-        <v>39.58895079205654</v>
+        <v>44.07134952088349</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.63729865544879</v>
+        <v>15.32263573644914</v>
       </c>
       <c r="L20">
-        <v>6.503833939838868</v>
+        <v>10.0953359400163</v>
       </c>
       <c r="M20">
-        <v>12.7076927866723</v>
+        <v>17.05900526390973</v>
       </c>
       <c r="N20">
-        <v>17.34662838706814</v>
+        <v>24.81573032936392</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.98048760823406</v>
+        <v>19.37229350019709</v>
       </c>
       <c r="C21">
-        <v>8.899026888565269</v>
+        <v>6.278522707416094</v>
       </c>
       <c r="D21">
-        <v>5.841813323939666</v>
+        <v>8.862103062008998</v>
       </c>
       <c r="E21">
-        <v>6.395298108972936</v>
+        <v>10.61442909647135</v>
       </c>
       <c r="F21">
-        <v>41.0391393622907</v>
+        <v>44.32092703889811</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.6821998694545</v>
+        <v>15.49710286840493</v>
       </c>
       <c r="L21">
-        <v>6.625862614057764</v>
+        <v>10.09122464382396</v>
       </c>
       <c r="M21">
-        <v>13.17178107961868</v>
+        <v>17.09714305713095</v>
       </c>
       <c r="N21">
-        <v>17.2861753489179</v>
+        <v>24.79087411032312</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.70135233692584</v>
+        <v>19.53148915514736</v>
       </c>
       <c r="C22">
-        <v>9.195547507459938</v>
+        <v>6.401069196810738</v>
       </c>
       <c r="D22">
-        <v>5.781189125589283</v>
+        <v>8.854510283510706</v>
       </c>
       <c r="E22">
-        <v>6.402559438705328</v>
+        <v>10.60526119724485</v>
       </c>
       <c r="F22">
-        <v>41.99489108078212</v>
+        <v>44.49053293958847</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.34270419533776</v>
+        <v>15.61337326886036</v>
       </c>
       <c r="L22">
-        <v>6.708292481389782</v>
+        <v>10.08976366244026</v>
       </c>
       <c r="M22">
-        <v>13.47597844750101</v>
+        <v>17.12476199022956</v>
       </c>
       <c r="N22">
-        <v>17.25311649294857</v>
+        <v>24.77622675897768</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.31798790456804</v>
+        <v>19.44630496032127</v>
       </c>
       <c r="C23">
-        <v>9.038003868845596</v>
+        <v>6.336038225318778</v>
       </c>
       <c r="D23">
-        <v>5.813622464938035</v>
+        <v>8.85855228098881</v>
       </c>
       <c r="E23">
-        <v>6.398484961614574</v>
+        <v>10.6100818988508</v>
       </c>
       <c r="F23">
-        <v>41.48405963168173</v>
+        <v>44.39942663380306</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.99218654175469</v>
+        <v>15.55112275419752</v>
       </c>
       <c r="L23">
-        <v>6.664050359237343</v>
+        <v>10.09043141321245</v>
       </c>
       <c r="M23">
-        <v>13.31355000258411</v>
+        <v>17.10977630994208</v>
       </c>
       <c r="N23">
-        <v>17.27014383441301</v>
+        <v>24.78389809742712</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.83582838491451</v>
+        <v>19.12874781959426</v>
       </c>
       <c r="C24">
-        <v>8.425336276896491</v>
+        <v>6.08161124845619</v>
       </c>
       <c r="D24">
-        <v>5.934952596763313</v>
+        <v>8.874090569502856</v>
       </c>
       <c r="E24">
-        <v>6.387337395317527</v>
+        <v>10.62993149882839</v>
       </c>
       <c r="F24">
-        <v>39.56538416239795</v>
+        <v>44.06738201040613</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.61983276628287</v>
+        <v>15.31982445123879</v>
       </c>
       <c r="L24">
-        <v>6.501884071258719</v>
+        <v>10.09542387147965</v>
       </c>
       <c r="M24">
-        <v>12.70012487442318</v>
+        <v>17.05842772634185</v>
       </c>
       <c r="N24">
-        <v>17.34771967913252</v>
+        <v>24.81616355206219</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.17341018417886</v>
+        <v>18.79869717418557</v>
       </c>
       <c r="C25">
-        <v>7.728761633288691</v>
+        <v>5.790445355787345</v>
       </c>
       <c r="D25">
-        <v>6.063705403412329</v>
+        <v>8.891349454603443</v>
       </c>
       <c r="E25">
-        <v>6.383941559651346</v>
+        <v>10.6547554052835</v>
       </c>
       <c r="F25">
-        <v>37.53124590917981</v>
+        <v>43.73801068769019</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.17555759097782</v>
+        <v>15.08103502444421</v>
       </c>
       <c r="L25">
-        <v>6.338220418598348</v>
+        <v>10.10608839980877</v>
       </c>
       <c r="M25">
-        <v>12.04353118684489</v>
+        <v>17.01474682229501</v>
       </c>
       <c r="N25">
-        <v>17.45663878960287</v>
+        <v>24.85782142415339</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_153/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_153/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.5679874210492</v>
+        <v>16.89731810386825</v>
       </c>
       <c r="C2">
-        <v>5.562401437147237</v>
+        <v>7.18401511899736</v>
       </c>
       <c r="D2">
-        <v>8.904495809317439</v>
+        <v>6.157666630475518</v>
       </c>
       <c r="E2">
-        <v>10.67598311675268</v>
+        <v>6.388378356141335</v>
       </c>
       <c r="F2">
-        <v>43.52110274804083</v>
+        <v>36.06672028914639</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.91549994552527</v>
+        <v>13.1923069775654</v>
       </c>
       <c r="L2">
-        <v>10.11849393003555</v>
+        <v>6.227155121602714</v>
       </c>
       <c r="M2">
-        <v>16.99277315757985</v>
+        <v>11.56630980331351</v>
       </c>
       <c r="N2">
-        <v>24.89438636514322</v>
+        <v>17.556160105647</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.42006533862371</v>
+        <v>16.00274652528087</v>
       </c>
       <c r="C3">
-        <v>5.399777418781163</v>
+        <v>6.794691123306548</v>
       </c>
       <c r="D3">
-        <v>8.913683858099608</v>
+        <v>6.221252091717095</v>
       </c>
       <c r="E3">
-        <v>10.69221696583118</v>
+        <v>6.395490615835476</v>
       </c>
       <c r="F3">
-        <v>43.39044630862723</v>
+        <v>35.09712913093617</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,16 +483,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.81024531050834</v>
+        <v>12.50424566830943</v>
       </c>
       <c r="L3">
-        <v>10.12974653347598</v>
+        <v>6.157665066591904</v>
       </c>
       <c r="M3">
-        <v>16.98428539354114</v>
+        <v>11.2480174843951</v>
       </c>
       <c r="N3">
-        <v>24.92284110228973</v>
+        <v>17.63462267554027</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.33363894517318</v>
+        <v>15.4401736508225</v>
       </c>
       <c r="C4">
-        <v>5.296116411645936</v>
+        <v>6.545719577681481</v>
       </c>
       <c r="D4">
-        <v>8.919464365204497</v>
+        <v>6.260375151180458</v>
       </c>
       <c r="E4">
-        <v>10.70309845947502</v>
+        <v>6.401813975410999</v>
       </c>
       <c r="F4">
-        <v>43.31839245167132</v>
+        <v>34.51403071606313</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,16 +524,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.74919779977436</v>
+        <v>12.07214695940821</v>
       </c>
       <c r="L4">
-        <v>10.13806042733651</v>
+        <v>6.117812347044754</v>
       </c>
       <c r="M4">
-        <v>16.98224569073491</v>
+        <v>11.05559826058788</v>
       </c>
       <c r="N4">
-        <v>24.94212439181819</v>
+        <v>17.68792619544297</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.29956018811473</v>
+        <v>15.20783911530784</v>
       </c>
       <c r="C5">
-        <v>5.25294532627352</v>
+        <v>6.441780403274704</v>
       </c>
       <c r="D5">
-        <v>8.921855124916892</v>
+        <v>6.276355881240741</v>
       </c>
       <c r="E5">
-        <v>10.70776292067703</v>
+        <v>6.404873068539412</v>
       </c>
       <c r="F5">
-        <v>43.29109947485035</v>
+        <v>34.27964399392206</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,16 +565,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.72524368886243</v>
+        <v>11.89384864515148</v>
       </c>
       <c r="L5">
-        <v>10.14180184388389</v>
+        <v>6.102274231715488</v>
       </c>
       <c r="M5">
-        <v>16.98221387853335</v>
+        <v>10.97802294901475</v>
       </c>
       <c r="N5">
-        <v>24.95043806957895</v>
+        <v>17.71089494600567</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.2939713023221</v>
+        <v>15.1690827813835</v>
       </c>
       <c r="C6">
-        <v>5.245721643515959</v>
+        <v>6.424372174172446</v>
       </c>
       <c r="D6">
-        <v>8.922254237969398</v>
+        <v>6.279012233959715</v>
       </c>
       <c r="E6">
-        <v>10.70855136309504</v>
+        <v>6.405409880917285</v>
       </c>
       <c r="F6">
-        <v>43.28669289571229</v>
+        <v>34.24092397247778</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.72132253397177</v>
+        <v>11.86411541619904</v>
       </c>
       <c r="L6">
-        <v>10.14244445485612</v>
+        <v>6.099736372911939</v>
       </c>
       <c r="M6">
-        <v>16.9822569214856</v>
+        <v>10.96519456027239</v>
       </c>
       <c r="N6">
-        <v>24.95184606373742</v>
+        <v>17.71478304077682</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.33317468432132</v>
+        <v>15.43705239534919</v>
       </c>
       <c r="C7">
-        <v>5.295537909298345</v>
+        <v>6.544327836455713</v>
       </c>
       <c r="D7">
-        <v>8.919496465231243</v>
+        <v>6.260590497955343</v>
       </c>
       <c r="E7">
-        <v>10.70316043360824</v>
+        <v>6.401853291209199</v>
       </c>
       <c r="F7">
-        <v>43.31801597110368</v>
+        <v>34.51085640669257</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.74887097868076</v>
+        <v>12.0697510303638</v>
       </c>
       <c r="L7">
-        <v>10.13810945410836</v>
+        <v>6.11759995930742</v>
       </c>
       <c r="M7">
-        <v>16.98224202297641</v>
+        <v>11.05454855642116</v>
       </c>
       <c r="N7">
-        <v>24.94223466848532</v>
+        <v>17.6882309638273</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.51609248382123</v>
+        <v>16.59177229290736</v>
       </c>
       <c r="C8">
-        <v>5.507136106533902</v>
+        <v>7.05184121159242</v>
       </c>
       <c r="D8">
-        <v>8.907635120370385</v>
+        <v>6.179584832265349</v>
       </c>
       <c r="E8">
-        <v>10.68139110247534</v>
+        <v>6.390418660176215</v>
       </c>
       <c r="F8">
-        <v>43.47436652508966</v>
+        <v>35.72995613383617</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,16 +688,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.87847970087586</v>
+        <v>12.95717236972714</v>
       </c>
       <c r="L8">
-        <v>10.12208240659655</v>
+        <v>6.202607680004511</v>
       </c>
       <c r="M8">
-        <v>16.98918946595218</v>
+        <v>11.45598354983828</v>
       </c>
       <c r="N8">
-        <v>24.9038214539037</v>
+        <v>17.58212349876708</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.9080673296091</v>
+        <v>18.7417447625281</v>
       </c>
       <c r="C9">
-        <v>5.890700165091569</v>
+        <v>7.968294999840311</v>
       </c>
       <c r="D9">
-        <v>8.885468287321101</v>
+        <v>6.02052663942003</v>
       </c>
       <c r="E9">
-        <v>10.64593616881396</v>
+        <v>6.383976920781449</v>
       </c>
       <c r="F9">
-        <v>43.8450357607373</v>
+        <v>38.2115328859477</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,16 +729,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.1599449718986</v>
+        <v>14.61403988339907</v>
       </c>
       <c r="L9">
-        <v>10.10178950066164</v>
+        <v>6.391869681541505</v>
       </c>
       <c r="M9">
-        <v>17.02788550263548</v>
+        <v>12.26388386780718</v>
       </c>
       <c r="N9">
-        <v>24.84287339385074</v>
+        <v>17.41679849034491</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.21403278915717</v>
+        <v>20.24318876577549</v>
       </c>
       <c r="C10">
-        <v>6.152014953496629</v>
+        <v>8.594368903073294</v>
       </c>
       <c r="D10">
-        <v>8.869834362736025</v>
+        <v>5.902238171273119</v>
       </c>
       <c r="E10">
-        <v>10.6242759495916</v>
+        <v>6.389659959770317</v>
       </c>
       <c r="F10">
-        <v>44.15528379456642</v>
+        <v>40.08343635114899</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.381814092631</v>
+        <v>15.99999682196173</v>
       </c>
       <c r="L10">
-        <v>10.09365403966956</v>
+        <v>6.545000892771011</v>
       </c>
       <c r="M10">
-        <v>17.0714500490097</v>
+        <v>12.86629004350494</v>
       </c>
       <c r="N10">
-        <v>24.80686640754913</v>
+        <v>17.32455496871401</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.35660910707412</v>
+        <v>20.9084011458043</v>
       </c>
       <c r="C11">
-        <v>6.26620596072532</v>
+        <v>8.869306134257139</v>
       </c>
       <c r="D11">
-        <v>8.862860524544434</v>
+        <v>5.847791011140766</v>
       </c>
       <c r="E11">
-        <v>10.61537040809885</v>
+        <v>6.394666392949949</v>
       </c>
       <c r="F11">
-        <v>44.30437325575956</v>
+        <v>40.94470397870366</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.48566327898215</v>
+        <v>16.61581118815881</v>
       </c>
       <c r="L11">
-        <v>10.09141953791619</v>
+        <v>6.617800174188218</v>
       </c>
       <c r="M11">
-        <v>17.0945142897878</v>
+        <v>13.1416540063244</v>
       </c>
       <c r="N11">
-        <v>24.79239165674452</v>
+        <v>17.28972512892045</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.411041585999</v>
+        <v>21.15771929392857</v>
       </c>
       <c r="C12">
-        <v>6.308756699413584</v>
+        <v>8.972042474562009</v>
       </c>
       <c r="D12">
-        <v>8.860239344278318</v>
+        <v>5.827051489108183</v>
       </c>
       <c r="E12">
-        <v>10.61213402366852</v>
+        <v>6.396924643320126</v>
       </c>
       <c r="F12">
-        <v>44.36194650220674</v>
+        <v>41.27221218428968</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,16 +852,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.525376659747</v>
+        <v>16.84515269721793</v>
       </c>
       <c r="L12">
-        <v>10.09078376085402</v>
+        <v>6.645826182720464</v>
       </c>
       <c r="M12">
-        <v>17.10371074812145</v>
+        <v>13.24608215222543</v>
       </c>
       <c r="N12">
-        <v>24.78718446527014</v>
+        <v>17.27763564892282</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.39929965718643</v>
+        <v>21.10413904481385</v>
       </c>
       <c r="C13">
-        <v>6.299623623679058</v>
+        <v>8.949976799774962</v>
       </c>
       <c r="D13">
-        <v>8.860802991098318</v>
+        <v>5.831524033764502</v>
       </c>
       <c r="E13">
-        <v>10.61282499598253</v>
+        <v>6.396421931277446</v>
       </c>
       <c r="F13">
-        <v>44.34949788648812</v>
+        <v>41.20161683785729</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,16 +893,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.51680693345438</v>
+        <v>16.79592923148335</v>
       </c>
       <c r="L13">
-        <v>10.0909113384434</v>
+        <v>6.639769757674518</v>
       </c>
       <c r="M13">
-        <v>17.10170962835011</v>
+        <v>13.22358529069541</v>
       </c>
       <c r="N13">
-        <v>24.78829373498687</v>
+        <v>17.28018915615671</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.3610787070438</v>
+        <v>20.92896447670439</v>
       </c>
       <c r="C14">
-        <v>6.269720576118419</v>
+        <v>8.877785621726979</v>
       </c>
       <c r="D14">
-        <v>8.862644485577119</v>
+        <v>5.846087377336394</v>
       </c>
       <c r="E14">
-        <v>10.61510142611235</v>
+        <v>6.394844831577805</v>
       </c>
       <c r="F14">
-        <v>44.30908763436934</v>
+        <v>40.97162097305192</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.48892293275062</v>
+        <v>16.63475574866625</v>
       </c>
       <c r="L14">
-        <v>10.09136301880363</v>
+        <v>6.620096655259634</v>
       </c>
       <c r="M14">
-        <v>17.0952616443814</v>
+        <v>13.15024245551816</v>
       </c>
       <c r="N14">
-        <v>24.79195776414601</v>
+        <v>17.28870802571161</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.33772345572406</v>
+        <v>20.82132850479039</v>
       </c>
       <c r="C15">
-        <v>6.251313631087253</v>
+        <v>8.83338861968657</v>
       </c>
       <c r="D15">
-        <v>8.863775008619998</v>
+        <v>5.854991071917571</v>
       </c>
       <c r="E15">
-        <v>10.61651349992694</v>
+        <v>6.393926452020075</v>
       </c>
       <c r="F15">
-        <v>44.28447970929592</v>
+        <v>40.8309192858284</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.47189274115141</v>
+        <v>16.5355342671685</v>
       </c>
       <c r="L15">
-        <v>10.09166706841934</v>
+        <v>6.608106260486808</v>
       </c>
       <c r="M15">
-        <v>17.09137216781336</v>
+        <v>13.10533700572039</v>
       </c>
       <c r="N15">
-        <v>24.79423778560099</v>
+        <v>17.29407164128176</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.20477943593281</v>
+        <v>20.19935449708824</v>
       </c>
       <c r="C16">
-        <v>6.144456529471705</v>
+        <v>8.576205960890588</v>
       </c>
       <c r="D16">
-        <v>8.870292881589773</v>
+        <v>5.905781111222578</v>
       </c>
       <c r="E16">
-        <v>10.62487699069295</v>
+        <v>6.389382693154068</v>
       </c>
       <c r="F16">
-        <v>44.14569821113651</v>
+        <v>40.02734243076132</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.37508334511008</v>
+        <v>15.95920564370772</v>
       </c>
       <c r="L16">
-        <v>10.09382953692748</v>
+        <v>6.540307027484762</v>
       </c>
       <c r="M16">
-        <v>17.07000771589228</v>
+        <v>12.84831759920387</v>
       </c>
       <c r="N16">
-        <v>24.80785071271173</v>
+        <v>17.3269808735495</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.12405881652843</v>
+        <v>19.8132055229154</v>
       </c>
       <c r="C17">
-        <v>6.077690702880411</v>
+        <v>8.415932625185475</v>
       </c>
       <c r="D17">
-        <v>8.87432661757156</v>
+        <v>5.936755626083002</v>
       </c>
       <c r="E17">
-        <v>10.63025023355347</v>
+        <v>6.387225189211447</v>
       </c>
       <c r="F17">
-        <v>44.06257881185376</v>
+        <v>39.5368291984574</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.31641926179657</v>
+        <v>15.59864719776035</v>
       </c>
       <c r="L17">
-        <v>10.09553138990165</v>
+        <v>6.499522983446976</v>
       </c>
       <c r="M17">
-        <v>17.05772989457807</v>
+        <v>12.69095391593898</v>
       </c>
       <c r="N17">
-        <v>24.81668982590669</v>
+        <v>17.34904683489186</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.07795242391687</v>
+        <v>19.58942620742626</v>
       </c>
       <c r="C18">
-        <v>6.038848950275991</v>
+        <v>8.322815766008597</v>
       </c>
       <c r="D18">
-        <v>8.876659727571209</v>
+        <v>5.954513344757308</v>
       </c>
       <c r="E18">
-        <v>10.63343001284739</v>
+        <v>6.386211231778084</v>
       </c>
       <c r="F18">
-        <v>44.01552137454561</v>
+        <v>39.25561447827238</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.28295401885317</v>
+        <v>15.38865227618411</v>
       </c>
       <c r="L18">
-        <v>10.09664830434403</v>
+        <v>6.476360049779267</v>
       </c>
       <c r="M18">
-        <v>17.05097387928081</v>
+        <v>12.60056877876352</v>
       </c>
       <c r="N18">
-        <v>24.82195315023645</v>
+        <v>17.36240503894863</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.06239827272146</v>
+        <v>19.51337173626418</v>
       </c>
       <c r="C19">
-        <v>6.025622831770979</v>
+        <v>8.291126816045535</v>
       </c>
       <c r="D19">
-        <v>8.877451919377819</v>
+        <v>5.960516703463126</v>
       </c>
       <c r="E19">
-        <v>10.63452196754765</v>
+        <v>6.385906489963676</v>
       </c>
       <c r="F19">
-        <v>43.99971827507944</v>
+        <v>39.16055893570118</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.27167176213633</v>
+        <v>15.31709954266526</v>
       </c>
       <c r="L19">
-        <v>10.09705019679844</v>
+        <v>6.468567947953122</v>
       </c>
       <c r="M19">
-        <v>17.04873906510517</v>
+        <v>12.56998894987884</v>
       </c>
       <c r="N19">
-        <v>24.82376601184039</v>
+        <v>17.36704021931324</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.13261867052912</v>
+        <v>19.85448555369646</v>
       </c>
       <c r="C20">
-        <v>6.084843692202145</v>
+        <v>8.433090165123479</v>
       </c>
       <c r="D20">
-        <v>8.873895874295615</v>
+        <v>5.933464546219448</v>
       </c>
       <c r="E20">
-        <v>10.62966900996438</v>
+        <v>6.38743126749309</v>
       </c>
       <c r="F20">
-        <v>44.07134952088349</v>
+        <v>39.58895079205657</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.32263573644914</v>
+        <v>15.6372986554488</v>
       </c>
       <c r="L20">
-        <v>10.0953359400163</v>
+        <v>6.503833939838928</v>
       </c>
       <c r="M20">
-        <v>17.05900526390973</v>
+        <v>12.70769278667235</v>
       </c>
       <c r="N20">
-        <v>24.81573032936392</v>
+        <v>17.34662838706822</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.37229350019709</v>
+        <v>20.98048760823409</v>
       </c>
       <c r="C21">
-        <v>6.278522707416094</v>
+        <v>8.899026888565361</v>
       </c>
       <c r="D21">
-        <v>8.862103062008998</v>
+        <v>5.841813323939279</v>
       </c>
       <c r="E21">
-        <v>10.61442909647135</v>
+        <v>6.395298108972993</v>
       </c>
       <c r="F21">
-        <v>44.32092703889811</v>
+        <v>41.03913936229076</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.49710286840493</v>
+        <v>16.68219986945453</v>
       </c>
       <c r="L21">
-        <v>10.09122464382396</v>
+        <v>6.625862614057766</v>
       </c>
       <c r="M21">
-        <v>17.09714305713095</v>
+        <v>13.17178107961869</v>
       </c>
       <c r="N21">
-        <v>24.79087411032312</v>
+        <v>17.28617534891789</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.53148915514736</v>
+        <v>21.7013523369258</v>
       </c>
       <c r="C22">
-        <v>6.401069196810738</v>
+        <v>9.195547507459848</v>
       </c>
       <c r="D22">
-        <v>8.854510283510706</v>
+        <v>5.781189125589283</v>
       </c>
       <c r="E22">
-        <v>10.60526119724485</v>
+        <v>6.402559438705323</v>
       </c>
       <c r="F22">
-        <v>44.49053293958847</v>
+        <v>41.99489108078219</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.61337326886036</v>
+        <v>17.34270419533769</v>
       </c>
       <c r="L22">
-        <v>10.08976366244026</v>
+        <v>6.708292481389799</v>
       </c>
       <c r="M22">
-        <v>17.12476199022956</v>
+        <v>13.47597844750102</v>
       </c>
       <c r="N22">
-        <v>24.77622675897768</v>
+        <v>17.25311649294866</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.44630496032127</v>
+        <v>21.31798790456802</v>
       </c>
       <c r="C23">
-        <v>6.336038225318778</v>
+        <v>9.038003868845802</v>
       </c>
       <c r="D23">
-        <v>8.85855228098881</v>
+        <v>5.813622464938106</v>
       </c>
       <c r="E23">
-        <v>10.6100818988508</v>
+        <v>6.398484961614616</v>
       </c>
       <c r="F23">
-        <v>44.39942663380306</v>
+        <v>41.4840596316817</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.55112275419752</v>
+        <v>16.99218654175466</v>
       </c>
       <c r="L23">
-        <v>10.09043141321245</v>
+        <v>6.664050359237339</v>
       </c>
       <c r="M23">
-        <v>17.10977630994208</v>
+        <v>13.31355000258412</v>
       </c>
       <c r="N23">
-        <v>24.78389809742712</v>
+        <v>17.27014383441299</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.12874781959426</v>
+        <v>19.83582838491451</v>
       </c>
       <c r="C24">
-        <v>6.08161124845619</v>
+        <v>8.425336276896582</v>
       </c>
       <c r="D24">
-        <v>8.874090569502856</v>
+        <v>5.934952596763245</v>
       </c>
       <c r="E24">
-        <v>10.62993149882839</v>
+        <v>6.387337395317537</v>
       </c>
       <c r="F24">
-        <v>44.06738201040613</v>
+        <v>39.56538416239794</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.31982445123879</v>
+        <v>15.61983276628289</v>
       </c>
       <c r="L24">
-        <v>10.09542387147965</v>
+        <v>6.50188407125868</v>
       </c>
       <c r="M24">
-        <v>17.05842772634185</v>
+        <v>12.70012487442317</v>
       </c>
       <c r="N24">
-        <v>24.81616355206219</v>
+        <v>17.34771967913251</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.79869717418557</v>
+        <v>18.17341018417881</v>
       </c>
       <c r="C25">
-        <v>5.790445355787345</v>
+        <v>7.728761633288753</v>
       </c>
       <c r="D25">
-        <v>8.891349454603443</v>
+        <v>6.063705403412265</v>
       </c>
       <c r="E25">
-        <v>10.6547554052835</v>
+        <v>6.383941559651333</v>
       </c>
       <c r="F25">
-        <v>43.73801068769019</v>
+        <v>37.53124590917975</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.08103502444421</v>
+        <v>14.17555759097782</v>
       </c>
       <c r="L25">
-        <v>10.10608839980877</v>
+        <v>6.338220418598316</v>
       </c>
       <c r="M25">
-        <v>17.01474682229501</v>
+        <v>12.04353118684486</v>
       </c>
       <c r="N25">
-        <v>24.85782142415339</v>
+        <v>17.45663878960282</v>
       </c>
       <c r="O25">
         <v>0</v>
